--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="23145" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
-    <sheet name="Enemy" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="enemy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -760,14 +759,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1120,19 +1116,19 @@
       </c>
     </row>
     <row r="2" ht="31.25" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1154,16 +1150,16 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>101</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1171,49 +1167,49 @@
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>102</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>103</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>104</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1227,7 +1223,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1265,7 +1261,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1279,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1298,19 +1294,19 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1318,151 +1314,134 @@
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>205</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1.2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>301</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>302</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>303</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1.5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
-    <sheet name="enemy" sheetId="2" r:id="rId2"/>
+    <sheet name="Enemy" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -759,11 +760,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1085,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1116,19 +1120,19 @@
       </c>
     </row>
     <row r="2" ht="31.25" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1150,16 +1154,16 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>101</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1167,49 +1171,49 @@
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>102</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1.1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>103</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>104</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1.3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1223,7 +1227,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1261,7 +1265,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1283,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1294,19 +1298,19 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1314,134 +1318,151 @@
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>205</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>1.2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>301</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>302</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>303</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1.5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>白慢坦克</t>
@@ -1221,10 +1224,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1294,55 +1297,55 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A4" s="2">
-        <v>201</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:6">
       <c r="A5" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:6">
       <c r="A6" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:6">
       <c r="A7" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -1360,16 +1363,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:6">
       <c r="A8" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1378,43 +1381,43 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:6">
       <c r="A9" s="2">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:6">
       <c r="A10" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1423,21 +1426,39 @@
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:6">
       <c r="A11" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:6">
+      <c r="A12" s="2">
+        <v>303</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>1.5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -69,6 +69,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>player_0</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>白慢坦克</t>
@@ -1086,13 +1086,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.0083333333333" customWidth="1"/>
     <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
@@ -1153,17 +1153,17 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A4" s="2">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1171,48 +1171,65 @@
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:5">
       <c r="A5" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:5">
       <c r="A6" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>1.2</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:5">
       <c r="A7" s="2">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:5">
+      <c r="A8" s="2">
         <v>104</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>1.3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,7 +1243,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1242,10 +1259,10 @@
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1298,20 +1315,20 @@
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:6">

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -81,6 +81,15 @@
     <t>备注</t>
   </si>
   <si>
+    <t>初始血量</t>
+  </si>
+  <si>
+    <t>被击中后切换的坦克类型</t>
+  </si>
+  <si>
+    <t>NextID</t>
+  </si>
+  <si>
     <t>白慢坦克</t>
   </si>
   <si>
@@ -90,22 +99,43 @@
     <t>白快坦克</t>
   </si>
   <si>
+    <t>enemy_4</t>
+  </si>
+  <si>
     <t>白满级坦克</t>
   </si>
   <si>
+    <t>enemy_36</t>
+  </si>
+  <si>
     <t>绿满级坦克</t>
   </si>
   <si>
+    <t>enemy_32</t>
+  </si>
+  <si>
     <t>黄满级坦克</t>
   </si>
   <si>
+    <t>enemy_34</t>
+  </si>
+  <si>
     <t>红慢坦克</t>
   </si>
   <si>
+    <t>enemy_2</t>
+  </si>
+  <si>
     <t>红快坦克</t>
   </si>
   <si>
+    <t>enemy_6</t>
+  </si>
+  <si>
     <t>红满级坦克</t>
+  </si>
+  <si>
+    <t>enemy_38</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1118,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1241,23 +1271,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.0083333333333" customWidth="1"/>
     <col min="2" max="2" width="16.175" customWidth="1"/>
     <col min="3" max="3" width="13.8416666666667" customWidth="1"/>
     <col min="4" max="4" width="17.3416666666667" customWidth="1"/>
     <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.175" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="15.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:6">
+    <row r="1" ht="31.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1271,13 +1302,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="30.5" customHeight="1" spans="1:6">
+    <row r="2" ht="30.5" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1292,10 +1326,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:6">
+    <row r="3" ht="30.5" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1310,10 +1347,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:6">
+    <row r="4" ht="30.5" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1330,13 +1370,16 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:7">
       <c r="A5" s="2">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1347,16 +1390,19 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:6">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:7">
       <c r="A6" s="2">
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1367,14 +1413,19 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:6">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:7">
       <c r="A7" s="2">
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1385,14 +1436,19 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:6">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:7">
       <c r="A8" s="2">
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1403,14 +1459,19 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:6">
+      <c r="F8" s="2">
+        <v>203</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:7">
       <c r="A9" s="2">
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1421,14 +1482,19 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:6">
+      <c r="F9" s="2">
+        <v>204</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:7">
       <c r="A10" s="2">
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1439,14 +1505,19 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:6">
+      <c r="F10" s="2">
+        <v>201</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="30.5" customHeight="1" spans="1:7">
       <c r="A11" s="2">
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1457,14 +1528,19 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:6">
+      <c r="F11" s="2">
+        <v>202</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:7">
       <c r="A12" s="2">
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1475,7 +1551,12 @@
       <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>205</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -72,7 +72,16 @@
     <t>C</t>
   </si>
   <si>
-    <t>player_0</t>
+    <t>player1_0</t>
+  </si>
+  <si>
+    <t>player1_2</t>
+  </si>
+  <si>
+    <t>player1_4</t>
+  </si>
+  <si>
+    <t>player1_6</t>
   </si>
   <si>
     <t>坦克类型</t>
@@ -1118,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1229,7 +1238,9 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:5">
       <c r="A7" s="2">
@@ -1244,7 +1255,9 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:5">
       <c r="A8" s="2">
@@ -1259,7 +1272,9 @@
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1290,10 +1305,10 @@
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1302,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1326,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -1379,7 +1394,7 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1394,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:7">
@@ -1402,7 +1417,7 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1417,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:7">
@@ -1425,7 +1440,7 @@
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1440,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:7">
@@ -1448,7 +1463,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1463,7 +1478,7 @@
         <v>203</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:7">
@@ -1471,7 +1486,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1486,7 +1501,7 @@
         <v>204</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:7">
@@ -1494,7 +1509,7 @@
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1509,7 +1524,7 @@
         <v>201</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:7">
@@ -1517,7 +1532,7 @@
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1532,7 +1547,7 @@
         <v>202</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:7">
@@ -1540,7 +1555,7 @@
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1555,7 +1570,7 @@
         <v>205</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -96,52 +96,106 @@
     <t>被击中后切换的坦克类型</t>
   </si>
   <si>
+    <t>自动移动的时间间隔范围</t>
+  </si>
+  <si>
+    <t>搜寻目标概率(玩家,鸟窝,智能选择最近的玩家或者鸟巢,其它)</t>
+  </si>
+  <si>
     <t>NextID</t>
   </si>
   <si>
+    <t>AutoMoveInterval</t>
+  </si>
+  <si>
+    <t>TargetProbability</t>
+  </si>
+  <si>
+    <t>[float]</t>
+  </si>
+  <si>
     <t>白慢坦克</t>
   </si>
   <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>0.2,0.1,0.1</t>
+  </si>
+  <si>
     <t>enemy_0</t>
   </si>
   <si>
     <t>白快坦克</t>
   </si>
   <si>
+    <t>0.5,2</t>
+  </si>
+  <si>
     <t>enemy_4</t>
   </si>
   <si>
     <t>白满级坦克</t>
   </si>
   <si>
+    <t>0.2,0.2,0.1</t>
+  </si>
+  <si>
     <t>enemy_36</t>
   </si>
   <si>
     <t>绿满级坦克</t>
   </si>
   <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>0.2,0.2,0.2</t>
+  </si>
+  <si>
     <t>enemy_32</t>
   </si>
   <si>
     <t>黄满级坦克</t>
   </si>
   <si>
+    <t>2,2</t>
+  </si>
+  <si>
     <t>enemy_34</t>
   </si>
   <si>
     <t>红慢坦克</t>
   </si>
   <si>
+    <t>2,2.5</t>
+  </si>
+  <si>
+    <t>0.2,0.2,0.3</t>
+  </si>
+  <si>
     <t>enemy_2</t>
   </si>
   <si>
     <t>红快坦克</t>
   </si>
   <si>
+    <t>0.5,0.8</t>
+  </si>
+  <si>
+    <t>0.3,0.1,0.3</t>
+  </si>
+  <si>
     <t>enemy_6</t>
   </si>
   <si>
     <t>红满级坦克</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>0.3,0.2,0.3</t>
   </si>
   <si>
     <t>enemy_38</t>
@@ -1127,7 +1181,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1286,24 +1340,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.0083333333333" customWidth="1"/>
     <col min="2" max="2" width="16.175" customWidth="1"/>
     <col min="3" max="3" width="13.8416666666667" customWidth="1"/>
     <col min="4" max="4" width="17.3416666666667" customWidth="1"/>
     <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="15.175" customWidth="1"/>
+    <col min="6" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="31.125" customWidth="1"/>
+    <col min="9" max="9" width="15.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:7">
+    <row r="1" ht="53" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1323,10 +1378,16 @@
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="30.5" customHeight="1" spans="1:7">
+    <row r="2" ht="30.5" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1341,13 +1402,19 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:7">
+    <row r="3" ht="30.5" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1365,10 +1432,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:7">
+    <row r="4" ht="30.5" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1388,13 +1461,19 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:9">
       <c r="A5" s="2">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1409,15 +1488,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:9">
       <c r="A6" s="2">
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1432,15 +1517,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:9">
       <c r="A7" s="2">
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1455,15 +1546,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:9">
       <c r="A8" s="2">
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1478,15 +1575,21 @@
         <v>203</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:9">
       <c r="A9" s="2">
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1501,15 +1604,21 @@
         <v>204</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:9">
       <c r="A10" s="2">
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1524,15 +1633,21 @@
         <v>201</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="30.5" customHeight="1" spans="1:9">
       <c r="A11" s="2">
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1547,15 +1662,21 @@
         <v>202</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:9">
       <c r="A12" s="2">
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1570,7 +1691,13 @@
         <v>205</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -102,6 +102,9 @@
     <t>搜寻目标概率(玩家,鸟窝,智能选择最近的玩家或者鸟巢,其它)</t>
   </si>
   <si>
+    <t>自动发射子弹时间间隔范围</t>
+  </si>
+  <si>
     <t>NextID</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t>TargetProbability</t>
   </si>
   <si>
+    <t>AutoFireInterval</t>
+  </si>
+  <si>
     <t>[float]</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>0.2,0.1,0.1</t>
   </si>
   <si>
+    <t>1,3</t>
+  </si>
+  <si>
     <t>enemy_0</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
     <t>0.5,2</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>enemy_4</t>
   </si>
   <si>
@@ -153,6 +165,9 @@
     <t>0.2,0.2,0.2</t>
   </si>
   <si>
+    <t>1,4</t>
+  </si>
+  <si>
     <t>enemy_32</t>
   </si>
   <si>
@@ -162,6 +177,9 @@
     <t>2,2</t>
   </si>
   <si>
+    <t>1.5,2</t>
+  </si>
+  <si>
     <t>enemy_34</t>
   </si>
   <si>
@@ -190,9 +208,6 @@
   </si>
   <si>
     <t>红满级坦克</t>
-  </si>
-  <si>
-    <t>1,3</t>
   </si>
   <si>
     <t>0.3,0.2,0.3</t>
@@ -1340,10 +1355,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1355,10 +1370,11 @@
     <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
     <col min="6" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="31.125" customWidth="1"/>
-    <col min="9" max="9" width="15.175" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="15.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53" customHeight="1" spans="1:9">
+    <row r="1" ht="53" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1384,10 +1400,13 @@
         <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="30.5" customHeight="1" spans="1:9">
+    <row r="2" ht="30.5" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1402,19 +1421,22 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:9">
+    <row r="3" ht="30.5" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1432,16 +1454,19 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:9">
+    <row r="4" ht="30.5" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1467,13 +1492,16 @@
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:9">
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:10">
       <c r="A5" s="2">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1488,21 +1516,24 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:10">
       <c r="A6" s="2">
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1517,21 +1548,24 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:10">
       <c r="A7" s="2">
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1546,21 +1580,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:10">
       <c r="A8" s="2">
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1575,21 +1612,24 @@
         <v>203</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:10">
       <c r="A9" s="2">
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1604,21 +1644,24 @@
         <v>204</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:10">
       <c r="A10" s="2">
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1633,21 +1676,24 @@
         <v>201</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="30.5" customHeight="1" spans="1:10">
       <c r="A11" s="2">
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1662,21 +1708,24 @@
         <v>202</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:10">
       <c r="A12" s="2">
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1691,13 +1740,16 @@
         <v>205</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1357,7 +1357,7 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -93,6 +93,9 @@
     <t>初始血量</t>
   </si>
   <si>
+    <t>分数价值</t>
+  </si>
+  <si>
     <t>被击中后切换的坦克类型</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
   </si>
   <si>
     <t>自动发射子弹时间间隔范围</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
   <si>
     <t>NextID</t>
@@ -1196,7 +1202,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1355,10 +1361,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1368,13 +1374,13 @@
     <col min="3" max="3" width="13.8416666666667" customWidth="1"/>
     <col min="4" max="4" width="17.3416666666667" customWidth="1"/>
     <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="31.125" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="15.175" customWidth="1"/>
+    <col min="6" max="8" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="15.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53" customHeight="1" spans="1:10">
+    <row r="1" ht="53" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1403,10 +1409,13 @@
         <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="30.5" customHeight="1" spans="1:10">
+    <row r="2" ht="30.5" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1421,22 +1430,25 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:10">
+    <row r="3" ht="30.5" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1454,19 +1466,22 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:10">
+    <row r="4" ht="30.5" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1495,13 +1510,16 @@
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:10">
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:11">
       <c r="A5" s="2">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1513,27 +1531,30 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:11">
       <c r="A6" s="2">
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1545,27 +1566,30 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:11">
       <c r="A7" s="2">
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1577,27 +1601,30 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:11">
       <c r="A8" s="2">
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1609,27 +1636,30 @@
         <v>2</v>
       </c>
       <c r="F8" s="2">
+        <v>400</v>
+      </c>
+      <c r="G8" s="2">
         <v>203</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:10">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:11">
       <c r="A9" s="2">
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1641,27 +1671,30 @@
         <v>3</v>
       </c>
       <c r="F9" s="2">
+        <v>500</v>
+      </c>
+      <c r="G9" s="2">
         <v>204</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:10">
+        <v>51</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:11">
       <c r="A10" s="2">
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1673,27 +1706,30 @@
         <v>2</v>
       </c>
       <c r="F10" s="2">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2">
         <v>201</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="30.5" customHeight="1" spans="1:11">
       <c r="A11" s="2">
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1705,27 +1741,30 @@
         <v>2</v>
       </c>
       <c r="F11" s="2">
+        <v>400</v>
+      </c>
+      <c r="G11" s="2">
         <v>202</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:11">
       <c r="A12" s="2">
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1737,19 +1776,22 @@
         <v>4</v>
       </c>
       <c r="F12" s="2">
+        <v>600</v>
+      </c>
+      <c r="G12" s="2">
         <v>205</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1636,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G8" s="2">
         <v>203</v>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G9" s="2">
         <v>204</v>
@@ -1706,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <v>201</v>
@@ -1741,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G11" s="2">
         <v>202</v>
@@ -1776,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G12" s="2">
         <v>205</v>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="11784" windowHeight="5016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>坦克类型唯一标识</t>
   </si>
@@ -108,6 +108,9 @@
     <t>自动发射子弹时间间隔范围</t>
   </si>
   <si>
+    <t>被击后是否可弹出奖励道具</t>
+  </si>
+  <si>
     <t>Score</t>
   </si>
   <si>
@@ -123,9 +126,15 @@
     <t>AutoFireInterval</t>
   </si>
   <si>
+    <t>IsReward</t>
+  </si>
+  <si>
     <t>[float]</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>白慢坦克</t>
   </si>
   <si>
@@ -138,7 +147,7 @@
     <t>1,3</t>
   </si>
   <si>
-    <t>enemy_0</t>
+    <t>tankWhite_0</t>
   </si>
   <si>
     <t>白快坦克</t>
@@ -150,7 +159,7 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>enemy_4</t>
+    <t>tankWhite_2</t>
   </si>
   <si>
     <t>白满级坦克</t>
@@ -159,34 +168,34 @@
     <t>0.2,0.2,0.1</t>
   </si>
   <si>
-    <t>enemy_36</t>
+    <t>tankWhite_3</t>
+  </si>
+  <si>
+    <t>黄满级坦克</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>0.2,0.2,0.2</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>tankYellow_3</t>
   </si>
   <si>
     <t>绿满级坦克</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>0.2,0.2,0.2</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>enemy_32</t>
-  </si>
-  <si>
-    <t>黄满级坦克</t>
-  </si>
-  <si>
     <t>2,2</t>
   </si>
   <si>
     <t>1.5,2</t>
   </si>
   <si>
-    <t>enemy_34</t>
+    <t>tankGreen_3</t>
   </si>
   <si>
     <t>红慢坦克</t>
@@ -198,7 +207,7 @@
     <t>0.2,0.2,0.3</t>
   </si>
   <si>
-    <t>enemy_2</t>
+    <t>tankRad_0</t>
   </si>
   <si>
     <t>红快坦克</t>
@@ -210,7 +219,7 @@
     <t>0.3,0.1,0.3</t>
   </si>
   <si>
-    <t>enemy_6</t>
+    <t>tankRad_2</t>
   </si>
   <si>
     <t>红满级坦克</t>
@@ -219,7 +228,7 @@
     <t>0.3,0.2,0.3</t>
   </si>
   <si>
-    <t>enemy_38</t>
+    <t>tankRad_3</t>
   </si>
 </sst>
 </file>
@@ -1206,13 +1215,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.675" customWidth="1"/>
-    <col min="4" max="4" width="11.0083333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.3416666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.0092592592593" customWidth="1"/>
+    <col min="2" max="2" width="14.5092592592593" customWidth="1"/>
+    <col min="3" max="3" width="18.6759259259259" customWidth="1"/>
+    <col min="4" max="4" width="11.0092592592593" customWidth="1"/>
+    <col min="5" max="5" width="16.3425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:5">
@@ -1361,26 +1370,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.175" customWidth="1"/>
-    <col min="3" max="3" width="13.8416666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="8" width="22.875" customWidth="1"/>
-    <col min="9" max="9" width="31.125" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="15.175" customWidth="1"/>
+    <col min="1" max="1" width="15.0092592592593" customWidth="1"/>
+    <col min="2" max="2" width="16.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="13.8425925925926" customWidth="1"/>
+    <col min="4" max="4" width="17.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
+    <col min="6" max="8" width="22.8796296296296" customWidth="1"/>
+    <col min="9" max="9" width="31.1296296296296" customWidth="1"/>
+    <col min="10" max="10" width="16.8796296296296" customWidth="1"/>
+    <col min="11" max="12" width="15.1759259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53" customHeight="1" spans="1:11">
+    <row r="1" ht="53" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1414,8 +1425,11 @@
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="30.5" customHeight="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="30.5" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1430,25 +1444,28 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:11">
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="30.5" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1469,19 +1486,22 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:11">
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="30.5" customHeight="1" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1513,13 +1533,16 @@
       <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:11">
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:12">
       <c r="A5" s="2">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1537,24 +1560,27 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:11">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:12">
       <c r="A6" s="2">
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1572,24 +1598,27 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:11">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:12">
       <c r="A7" s="2">
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1607,24 +1636,27 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:12">
       <c r="A8" s="2">
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1642,24 +1674,27 @@
         <v>203</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:11">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:12">
       <c r="A9" s="2">
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1677,24 +1712,27 @@
         <v>204</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:12">
       <c r="A10" s="2">
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1712,24 +1750,27 @@
         <v>201</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="30.5" customHeight="1" spans="1:12">
       <c r="A11" s="2">
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1747,24 +1788,27 @@
         <v>202</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="L11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:12">
       <c r="A12" s="2">
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1782,16 +1826,19 @@
         <v>205</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="L12" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/tank.xlsx
+++ b/Assets/_TankRes/excel/tank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11784" windowHeight="5016" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1372,7 +1372,7 @@
   <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
